--- a/question papers/c.xlsx
+++ b/question papers/c.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>Q_no</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>########</t>
+  </si>
+  <si>
     <t>Which of the following statements should be used to obtain a remainder after dividing 3.14 by 2.1 ?</t>
   </si>
   <si>
@@ -57,9 +60,6 @@
     <t>Remainder cannot be obtain in floating point division.</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>Op3 is right because..</t>
   </si>
   <si>
@@ -78,9 +78,6 @@
     <t>Internal</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Question 3Which of the following special symbol allowed in a variable name?</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>_ (underscore)</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>How would you round off a value from 1.66 to 2.0?</t>
   </si>
   <si>
@@ -129,10 +123,13 @@
     <t>"I am a boy"</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">What is the purpose of "rb" in fopen() function used below in the code? </t>
     </r>
     <r>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Which of the following operations can be performed on the file "NOTES.TXT" using the below code?                                </t>
     </r>
     <r>
@@ -278,6 +281,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>To print out a and b given below, which of the following printf() statement will you use?                               #include&lt;stdio.h&gt;                              float</t>
     </r>
     <r>
@@ -377,12 +386,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,10 +418,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,8 +465,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,32 +518,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,77 +548,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,31 +577,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,13 +679,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,67 +721,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,61 +751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,6 +768,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -780,15 +821,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,15 +842,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -828,32 +851,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,152 +871,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -1024,9 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1372,10 +1371,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1411,263 +1410,273 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="142.5" spans="1:8">
-      <c r="A2">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="142.5" spans="1:8">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="71.25" spans="1:8">
-      <c r="A3">
+      <c r="G4">
         <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="42.75" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:8">
+    <row r="5" ht="71.25" spans="1:8">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="47.25" spans="1:8">
+    <row r="6" ht="42.75" spans="1:8">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="142.5" spans="1:8">
+    <row r="7" ht="28.5" spans="1:8">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="213.75" spans="1:8">
+    <row r="8" ht="47.25" spans="1:8">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="67.5" spans="1:8">
+    <row r="9" ht="142.5" spans="1:8">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="81" spans="1:8">
+    <row r="10" ht="213.75" spans="1:8">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" ht="67.5" spans="1:8">
       <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:8">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F13" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
